--- a/Code/Results/Cases/Case_5_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.384976031033943</v>
+        <v>1.789941881126367</v>
       </c>
       <c r="C2">
-        <v>0.4646511614367057</v>
+        <v>0.1974320777309231</v>
       </c>
       <c r="D2">
-        <v>0.06629409262469466</v>
+        <v>0.1255301292646962</v>
       </c>
       <c r="E2">
-        <v>0.04254572650268784</v>
+        <v>0.1219734253762805</v>
       </c>
       <c r="F2">
-        <v>0.7580115656196469</v>
+        <v>1.673981462271868</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0501020116705817</v>
+        <v>0.1521136849595996</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3178434878147982</v>
+        <v>0.324889485132104</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.923009256052183</v>
+        <v>4.323744603168905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.946192801228563</v>
+        <v>1.65880875767823</v>
       </c>
       <c r="C3">
-        <v>0.4173407329456325</v>
+        <v>0.1815793962261409</v>
       </c>
       <c r="D3">
-        <v>0.06138340088697447</v>
+        <v>0.1245654263693154</v>
       </c>
       <c r="E3">
-        <v>0.04299911239666443</v>
+        <v>0.122817320474268</v>
       </c>
       <c r="F3">
-        <v>0.7425044905220943</v>
+        <v>1.686348976962982</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05296618759049032</v>
+        <v>0.1539056223808393</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.281873473060557</v>
+        <v>0.3155631487321386</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.898150999357085</v>
+        <v>4.363243441035053</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.677576599869781</v>
+        <v>1.5784718402669</v>
       </c>
       <c r="C4">
-        <v>0.3883190905240497</v>
+        <v>0.1718055225641706</v>
       </c>
       <c r="D4">
-        <v>0.05840703006982295</v>
+        <v>0.1240026283985856</v>
       </c>
       <c r="E4">
-        <v>0.04333665052671609</v>
+        <v>0.1233783293661315</v>
       </c>
       <c r="F4">
-        <v>0.7349605574260636</v>
+        <v>1.694988679608997</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05482073472244453</v>
+        <v>0.1550683922271072</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2599486039979837</v>
+        <v>0.3099255058504014</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.888660121694841</v>
+        <v>4.390416221686564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568267839341104</v>
+        <v>1.54578101507559</v>
       </c>
       <c r="C5">
-        <v>0.3764952879445218</v>
+        <v>0.1678127304105317</v>
       </c>
       <c r="D5">
-        <v>0.05720329252498146</v>
+        <v>0.1237807504400266</v>
       </c>
       <c r="E5">
-        <v>0.04348872699039408</v>
+        <v>0.1236177360320303</v>
       </c>
       <c r="F5">
-        <v>0.7323593345770121</v>
+        <v>1.698772299926361</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05560008955021267</v>
+        <v>0.1555579589344753</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.251049998848444</v>
+        <v>0.3076506209180963</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.886171232448618</v>
+        <v>4.402222931448193</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550125242845695</v>
+        <v>1.540355634410218</v>
       </c>
       <c r="C6">
-        <v>0.3745320075632321</v>
+        <v>0.1671491427127592</v>
       </c>
       <c r="D6">
-        <v>0.05700394905948514</v>
+        <v>0.1237443599418029</v>
       </c>
       <c r="E6">
-        <v>0.04351484668280747</v>
+        <v>0.1236581415174598</v>
       </c>
       <c r="F6">
-        <v>0.7319552860078957</v>
+        <v>1.699416439484253</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05573091246317752</v>
+        <v>0.155640201348672</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2495744380263147</v>
+        <v>0.30727424228823</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.885839172417008</v>
+        <v>4.404227710792554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.676101856932064</v>
+        <v>1.578030766879351</v>
       </c>
       <c r="C7">
-        <v>0.3881596246060042</v>
+        <v>0.1717517139373399</v>
       </c>
       <c r="D7">
-        <v>0.05839075973269559</v>
+        <v>0.1239996057867998</v>
       </c>
       <c r="E7">
-        <v>0.04333864311241431</v>
+        <v>0.1233815143757759</v>
       </c>
       <c r="F7">
-        <v>0.7349235924234918</v>
+        <v>1.695038642687372</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0548311504269714</v>
+        <v>0.1550749309989339</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2598284544409069</v>
+        <v>0.3098947346134509</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.888621066565094</v>
+        <v>4.390572481884078</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.233488903143325</v>
+        <v>1.744691120654011</v>
       </c>
       <c r="C8">
-        <v>0.4483303268747818</v>
+        <v>0.191974583074682</v>
       </c>
       <c r="D8">
-        <v>0.06459245410078296</v>
+        <v>0.1251913936851778</v>
       </c>
       <c r="E8">
-        <v>0.04268956072239671</v>
+        <v>0.1222555151122968</v>
       </c>
       <c r="F8">
-        <v>0.7522392864680114</v>
+        <v>1.678028590717297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05106935387160849</v>
+        <v>0.1527185760662468</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3054048341553965</v>
+        <v>0.3216554449716256</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.913195082531985</v>
+        <v>4.33675722798111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.33515944912989</v>
+        <v>2.072863257250674</v>
       </c>
       <c r="C9">
-        <v>0.5667459253798199</v>
+        <v>0.2313024441538403</v>
       </c>
       <c r="D9">
-        <v>0.07709174921919981</v>
+        <v>0.1277612453177142</v>
       </c>
       <c r="E9">
-        <v>0.04190270974014965</v>
+        <v>0.120386797988429</v>
       </c>
       <c r="F9">
-        <v>0.8030503110563245</v>
+        <v>1.652979266673412</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04447783056746513</v>
+        <v>0.148593316301902</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3962782836803456</v>
+        <v>0.3454160042079479</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.010676156067916</v>
+        <v>4.254433096844764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.153353126579589</v>
+        <v>2.314725130968554</v>
       </c>
       <c r="C10">
-        <v>0.6543219556498627</v>
+        <v>0.2599859456025229</v>
       </c>
       <c r="D10">
-        <v>0.08652649594967698</v>
+        <v>0.1297893827025689</v>
       </c>
       <c r="E10">
-        <v>0.04164540260264893</v>
+        <v>0.119219843425677</v>
       </c>
       <c r="F10">
-        <v>0.8523902593822328</v>
+        <v>1.639651993101268</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04014930593416999</v>
+        <v>0.1458638597767994</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4642949551045064</v>
+        <v>0.3632917006573138</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.117544090293705</v>
+        <v>4.208149352101657</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.528344371366018</v>
+        <v>2.424905070806346</v>
       </c>
       <c r="C11">
-        <v>0.6943664544570822</v>
+        <v>0.2729871722924315</v>
       </c>
       <c r="D11">
-        <v>0.09088432878199626</v>
+        <v>0.1307420840076574</v>
       </c>
       <c r="E11">
-        <v>0.04160384946303708</v>
+        <v>0.1187335069483666</v>
       </c>
       <c r="F11">
-        <v>0.8778619799125664</v>
+        <v>1.634694077155117</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03830033273801892</v>
+        <v>0.144687443680021</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4955918119965474</v>
+        <v>0.3715135116242294</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.175070239222663</v>
+        <v>4.19018838638442</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.670822387995884</v>
+        <v>2.46664813427634</v>
       </c>
       <c r="C12">
-        <v>0.7095669016919999</v>
+        <v>0.2779034177767699</v>
       </c>
       <c r="D12">
-        <v>0.0925449981663462</v>
+        <v>0.1311071385240439</v>
       </c>
       <c r="E12">
-        <v>0.04159949736325075</v>
+        <v>0.1185557308121687</v>
       </c>
       <c r="F12">
-        <v>0.8879806644265642</v>
+        <v>1.632975706415749</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03761822611343923</v>
+        <v>0.1442513359872324</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5075016525338469</v>
+        <v>0.3746397025579569</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.198249608149865</v>
+        <v>4.183832819342825</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.640114709052341</v>
+        <v>2.457657148298381</v>
       </c>
       <c r="C13">
-        <v>0.7062914753467737</v>
+        <v>0.2768449336136314</v>
       </c>
       <c r="D13">
-        <v>0.09218686202624582</v>
+        <v>0.1310283274593971</v>
       </c>
       <c r="E13">
-        <v>0.04159991959117804</v>
+        <v>0.1185937341337624</v>
       </c>
       <c r="F13">
-        <v>0.8857797474184963</v>
+        <v>1.633338709386678</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03776431353830745</v>
+        <v>0.1443448426650766</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5049339358987055</v>
+        <v>0.3739658563561932</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.193193535423092</v>
+        <v>4.185181758982196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.540056107496298</v>
+        <v>2.42833890255838</v>
       </c>
       <c r="C14">
-        <v>0.6956162319467012</v>
+        <v>0.2733917773424537</v>
       </c>
       <c r="D14">
-        <v>0.09102073769348351</v>
+        <v>0.1307720315672825</v>
       </c>
       <c r="E14">
-        <v>0.04160326012149085</v>
+        <v>0.1187187532266005</v>
       </c>
       <c r="F14">
-        <v>0.8786847406972385</v>
+        <v>1.634549516179831</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03824384873205755</v>
+        <v>0.144651376960713</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4965704276094698</v>
+        <v>0.371770450349274</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.176948565798654</v>
+        <v>4.189656568711683</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.478831798063425</v>
+        <v>2.410383214114688</v>
       </c>
       <c r="C15">
-        <v>0.6890823007730091</v>
+        <v>0.2712756949896686</v>
       </c>
       <c r="D15">
-        <v>0.09030784441540618</v>
+        <v>0.1306156000754797</v>
       </c>
       <c r="E15">
-        <v>0.04160680501361647</v>
+        <v>0.1187961626868592</v>
       </c>
       <c r="F15">
-        <v>0.8744016317843375</v>
+        <v>1.63531189448338</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03853995425346923</v>
+        <v>0.144840358923056</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4914553682866512</v>
+        <v>0.3704273583797004</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.167183328667988</v>
+        <v>4.192455612306446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.128909044704017</v>
+        <v>2.307527568170542</v>
       </c>
       <c r="C16">
-        <v>0.6517096674140248</v>
+        <v>0.2591353148926601</v>
       </c>
       <c r="D16">
-        <v>0.08624310915855915</v>
+        <v>0.129727723530479</v>
       </c>
       <c r="E16">
-        <v>0.04164968155409809</v>
+        <v>0.1192525213793463</v>
       </c>
       <c r="F16">
-        <v>0.8507896947707394</v>
+        <v>1.639998253843217</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04027262342910998</v>
+        <v>0.1459420535258689</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4622573957125411</v>
+        <v>0.3627561827599806</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.113973476048329</v>
+        <v>4.209385481660775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.91500937030878</v>
+        <v>2.244467362744558</v>
       </c>
       <c r="C17">
-        <v>0.6288401621837352</v>
+        <v>0.2516753413941899</v>
       </c>
       <c r="D17">
-        <v>0.08376707652344351</v>
+        <v>0.12919071867627</v>
       </c>
       <c r="E17">
-        <v>0.04169568444745053</v>
+        <v>0.1195438755751876</v>
       </c>
       <c r="F17">
-        <v>0.8371057399734667</v>
+        <v>1.643156291771746</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04136686198931816</v>
+        <v>0.1466346108370136</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4444414626239563</v>
+        <v>0.3580731033043207</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.083691604858728</v>
+        <v>4.220564490935033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.792237717586261</v>
+        <v>2.208211584618539</v>
       </c>
       <c r="C18">
-        <v>0.615705143562792</v>
+        <v>0.2473801501742514</v>
       </c>
       <c r="D18">
-        <v>0.08234906968476707</v>
+        <v>0.1288846824027559</v>
       </c>
       <c r="E18">
-        <v>0.04172921652189565</v>
+        <v>0.1197156457013637</v>
       </c>
       <c r="F18">
-        <v>0.8295175408455293</v>
+        <v>1.645076680384946</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04200749214767541</v>
+        <v>0.1470390912272075</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.434227223391872</v>
+        <v>0.3553880081718575</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.067105699229103</v>
+        <v>4.22728550027503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.750711419879337</v>
+        <v>2.195938604262096</v>
       </c>
       <c r="C19">
-        <v>0.6112609010587562</v>
+        <v>0.2459251228606263</v>
       </c>
       <c r="D19">
-        <v>0.08186998342021923</v>
+        <v>0.1287815518645488</v>
       </c>
       <c r="E19">
-        <v>0.04174176916945882</v>
+        <v>0.1197745242891379</v>
       </c>
       <c r="F19">
-        <v>0.826995713821816</v>
+        <v>1.645744740810741</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04222630815335648</v>
+        <v>0.1471770959702177</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4307743167802158</v>
+        <v>0.354480344541642</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.061629470886857</v>
+        <v>4.229611091920759</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.937752148945776</v>
+        <v>2.251178714349919</v>
       </c>
       <c r="C20">
-        <v>0.6312726544406928</v>
+        <v>0.2524699268965946</v>
       </c>
       <c r="D20">
-        <v>0.0840300119941233</v>
+        <v>0.1292475906676742</v>
       </c>
       <c r="E20">
-        <v>0.04169005169758755</v>
+        <v>0.1195124267725216</v>
       </c>
       <c r="F20">
-        <v>0.838532923335606</v>
+        <v>1.642809351227442</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04124920824735323</v>
+        <v>0.1465602515186504</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4463345317109741</v>
+        <v>0.3585707479238494</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.086828316030704</v>
+        <v>4.219344327380355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.569432163673468</v>
+        <v>2.436949847284154</v>
       </c>
       <c r="C21">
-        <v>0.6987507621118993</v>
+        <v>0.2744062461765964</v>
       </c>
       <c r="D21">
-        <v>0.09136296482458306</v>
+        <v>0.1308471958462505</v>
       </c>
       <c r="E21">
-        <v>0.04160196559931251</v>
+        <v>0.1186818587945915</v>
       </c>
       <c r="F21">
-        <v>0.8807555593006526</v>
+        <v>1.63418955357146</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03810250089052936</v>
+        <v>0.1445610859896957</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.499025346942318</v>
+        <v>0.3724149491910254</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.181681278875686</v>
+        <v>4.188330100251221</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.985091676011393</v>
+        <v>2.558479460532965</v>
       </c>
       <c r="C22">
-        <v>0.743067802396439</v>
+        <v>0.288701758751472</v>
       </c>
       <c r="D22">
-        <v>0.09621691216398887</v>
+        <v>0.1319176011406142</v>
       </c>
       <c r="E22">
-        <v>0.04161101918239574</v>
+        <v>0.1181762684099077</v>
       </c>
       <c r="F22">
-        <v>0.9111279252202706</v>
+        <v>1.62948338767022</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03615162211360534</v>
+        <v>0.1433091618543196</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5338060587641138</v>
+        <v>0.3815372825010428</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.251866921634445</v>
+        <v>4.170659783744668</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.762961585739276</v>
+        <v>2.493606756558336</v>
       </c>
       <c r="C23">
-        <v>0.7193927424975186</v>
+        <v>0.2810758279857737</v>
       </c>
       <c r="D23">
-        <v>0.09362030384880882</v>
+        <v>0.1313440339592233</v>
       </c>
       <c r="E23">
-        <v>0.04159990673350045</v>
+        <v>0.1184427087523918</v>
       </c>
       <c r="F23">
-        <v>0.8946501519576202</v>
+        <v>1.631910228084507</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03718289591965362</v>
+        <v>0.1439723385100038</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5152088839052595</v>
+        <v>0.3766617784258273</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.213617601134075</v>
+        <v>4.179852605757759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.927469514806091</v>
+        <v>2.248144517197716</v>
       </c>
       <c r="C24">
-        <v>0.6301728848219454</v>
+        <v>0.2521107145618089</v>
       </c>
       <c r="D24">
-        <v>0.08391112181755034</v>
+        <v>0.1292218704438142</v>
       </c>
       <c r="E24">
-        <v>0.04169257623683542</v>
+        <v>0.1195266314849182</v>
       </c>
       <c r="F24">
-        <v>0.8378868278863507</v>
+        <v>1.64296587664353</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04130236362533513</v>
+        <v>0.1465938496794701</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.44547858732588</v>
+        <v>0.3583457401351779</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.085407652256379</v>
+        <v>4.21989504743874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.035856269082728</v>
+        <v>1.983946642053866</v>
       </c>
       <c r="C25">
-        <v>0.5346349685746361</v>
+        <v>0.2206995027477774</v>
       </c>
       <c r="D25">
-        <v>0.07366970250972571</v>
+        <v>0.1270413041532308</v>
       </c>
       <c r="E25">
-        <v>0.04206111004219792</v>
+        <v>0.1208560968123766</v>
       </c>
       <c r="F25">
-        <v>0.7873287017686366</v>
+        <v>1.658865163015754</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0461734218895673</v>
+        <v>0.1496563324304194</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3715008349143574</v>
+        <v>0.338914124362887</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.978514172597755</v>
+        <v>4.274214066712574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.789941881126367</v>
+        <v>3.384976031034</v>
       </c>
       <c r="C2">
-        <v>0.1974320777309231</v>
+        <v>0.4646511614366204</v>
       </c>
       <c r="D2">
-        <v>0.1255301292646962</v>
+        <v>0.06629409262457386</v>
       </c>
       <c r="E2">
-        <v>0.1219734253762805</v>
+        <v>0.04254572650268962</v>
       </c>
       <c r="F2">
-        <v>1.673981462271868</v>
+        <v>0.7580115656196469</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1521136849595996</v>
+        <v>0.05010201167061634</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.324889485132104</v>
+        <v>0.3178434878147982</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.323744603168905</v>
+        <v>1.923009256052183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.65880875767823</v>
+        <v>2.946192801228847</v>
       </c>
       <c r="C3">
-        <v>0.1815793962261409</v>
+        <v>0.4173407329460872</v>
       </c>
       <c r="D3">
-        <v>0.1245654263693154</v>
+        <v>0.06138340088686078</v>
       </c>
       <c r="E3">
-        <v>0.122817320474268</v>
+        <v>0.04299911239666532</v>
       </c>
       <c r="F3">
-        <v>1.686348976962982</v>
+        <v>0.7425044905220872</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1539056223808393</v>
+        <v>0.05296618759061733</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3155631487321386</v>
+        <v>0.281873473060557</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.363243441035053</v>
+        <v>1.898150999357114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5784718402669</v>
+        <v>2.67757659986961</v>
       </c>
       <c r="C4">
-        <v>0.1718055225641706</v>
+        <v>0.3883190905240781</v>
       </c>
       <c r="D4">
-        <v>0.1240026283985856</v>
+        <v>0.05840703006983006</v>
       </c>
       <c r="E4">
-        <v>0.1233783293661315</v>
+        <v>0.04333665052674718</v>
       </c>
       <c r="F4">
-        <v>1.694988679608997</v>
+        <v>0.7349605574260636</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1550683922271072</v>
+        <v>0.0548207347225147</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3099255058504014</v>
+        <v>0.2599486039980548</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.390416221686564</v>
+        <v>1.888660121694869</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.54578101507559</v>
+        <v>2.568267839341104</v>
       </c>
       <c r="C5">
-        <v>0.1678127304105317</v>
+        <v>0.3764952879445218</v>
       </c>
       <c r="D5">
-        <v>0.1237807504400266</v>
+        <v>0.05720329252457645</v>
       </c>
       <c r="E5">
-        <v>0.1236177360320303</v>
+        <v>0.04348872699039763</v>
       </c>
       <c r="F5">
-        <v>1.698772299926361</v>
+        <v>0.7323593345770476</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1555579589344753</v>
+        <v>0.05560008955022511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3076506209180963</v>
+        <v>0.2510499988485293</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.402222931448193</v>
+        <v>1.886171232448646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.540355634410218</v>
+        <v>2.550125242845752</v>
       </c>
       <c r="C6">
-        <v>0.1671491427127592</v>
+        <v>0.3745320075633742</v>
       </c>
       <c r="D6">
-        <v>0.1237443599418029</v>
+        <v>0.05700394905964146</v>
       </c>
       <c r="E6">
-        <v>0.1236581415174598</v>
+        <v>0.04351484668282346</v>
       </c>
       <c r="F6">
-        <v>1.699416439484253</v>
+        <v>0.7319552860078957</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.155640201348672</v>
+        <v>0.05573091246310424</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.30727424228823</v>
+        <v>0.2495744380262721</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.404227710792554</v>
+        <v>1.885839172417036</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.578030766879351</v>
+        <v>2.676101856932064</v>
       </c>
       <c r="C7">
-        <v>0.1717517139373399</v>
+        <v>0.3881596246061747</v>
       </c>
       <c r="D7">
-        <v>0.1239996057867998</v>
+        <v>0.05839075973282348</v>
       </c>
       <c r="E7">
-        <v>0.1233815143757759</v>
+        <v>0.04333864311244451</v>
       </c>
       <c r="F7">
-        <v>1.695038642687372</v>
+        <v>0.7349235924234776</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1550749309989339</v>
+        <v>0.05483115042692654</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3098947346134509</v>
+        <v>0.2598284544408784</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.390572481884078</v>
+        <v>1.888621066565037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.744691120654011</v>
+        <v>3.233488903143268</v>
       </c>
       <c r="C8">
-        <v>0.191974583074682</v>
+        <v>0.448330326874526</v>
       </c>
       <c r="D8">
-        <v>0.1251913936851778</v>
+        <v>0.06459245410081138</v>
       </c>
       <c r="E8">
-        <v>0.1222555151122968</v>
+        <v>0.04268956072237629</v>
       </c>
       <c r="F8">
-        <v>1.678028590717297</v>
+        <v>0.7522392864680114</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1527185760662468</v>
+        <v>0.05106935387150102</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3216554449716256</v>
+        <v>0.3054048341554818</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.33675722798111</v>
+        <v>1.913195082531956</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.072863257250674</v>
+        <v>4.335159449129833</v>
       </c>
       <c r="C9">
-        <v>0.2313024441538403</v>
+        <v>0.5667459253797631</v>
       </c>
       <c r="D9">
-        <v>0.1277612453177142</v>
+        <v>0.07709174921913586</v>
       </c>
       <c r="E9">
-        <v>0.120386797988429</v>
+        <v>0.04190270974016208</v>
       </c>
       <c r="F9">
-        <v>1.652979266673412</v>
+        <v>0.8030503110563316</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.148593316301902</v>
+        <v>0.04447783056742605</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3454160042079479</v>
+        <v>0.3962782836802035</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.254433096844764</v>
+        <v>2.010676156067859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.314725130968554</v>
+        <v>5.153353126579589</v>
       </c>
       <c r="C10">
-        <v>0.2599859456025229</v>
+        <v>0.6543219556502322</v>
       </c>
       <c r="D10">
-        <v>0.1297893827025689</v>
+        <v>0.08652649594989725</v>
       </c>
       <c r="E10">
-        <v>0.119219843425677</v>
+        <v>0.04164540260269689</v>
       </c>
       <c r="F10">
-        <v>1.639651993101268</v>
+        <v>0.8523902593822328</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1458638597767994</v>
+        <v>0.04014930593416999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3632917006573138</v>
+        <v>0.4642949551044211</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.208149352101657</v>
+        <v>2.117544090293677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.424905070806346</v>
+        <v>5.528344371365904</v>
       </c>
       <c r="C11">
-        <v>0.2729871722924315</v>
+        <v>0.6943664544570254</v>
       </c>
       <c r="D11">
-        <v>0.1307420840076574</v>
+        <v>0.09088432878215968</v>
       </c>
       <c r="E11">
-        <v>0.1187335069483666</v>
+        <v>0.0416038494630353</v>
       </c>
       <c r="F11">
-        <v>1.634694077155117</v>
+        <v>0.8778619799125664</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.144687443680021</v>
+        <v>0.03830033273795852</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3715135116242294</v>
+        <v>0.4955918119964764</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.19018838638442</v>
+        <v>2.175070239222663</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.46664813427634</v>
+        <v>5.67082238799577</v>
       </c>
       <c r="C12">
-        <v>0.2779034177767699</v>
+        <v>0.7095669016917157</v>
       </c>
       <c r="D12">
-        <v>0.1311071385240439</v>
+        <v>0.09254499816652384</v>
       </c>
       <c r="E12">
-        <v>0.1185557308121687</v>
+        <v>0.04159949736326674</v>
       </c>
       <c r="F12">
-        <v>1.632975706415749</v>
+        <v>0.8879806644265784</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1442513359872324</v>
+        <v>0.03761822611325627</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3746397025579569</v>
+        <v>0.5075016525338754</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.183832819342825</v>
+        <v>2.19824960814978</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.457657148298381</v>
+        <v>5.640114709052284</v>
       </c>
       <c r="C13">
-        <v>0.2768449336136314</v>
+        <v>0.70629147534666</v>
       </c>
       <c r="D13">
-        <v>0.1310283274593971</v>
+        <v>0.09218686202601134</v>
       </c>
       <c r="E13">
-        <v>0.1185937341337624</v>
+        <v>0.04159991959116383</v>
       </c>
       <c r="F13">
-        <v>1.633338709386678</v>
+        <v>0.8857797474184821</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1443448426650766</v>
+        <v>0.03776431353821774</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3739658563561932</v>
+        <v>0.5049339358985634</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.185181758982196</v>
+        <v>2.193193535423148</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.42833890255838</v>
+        <v>5.540056107496412</v>
       </c>
       <c r="C14">
-        <v>0.2733917773424537</v>
+        <v>0.6956162319465875</v>
       </c>
       <c r="D14">
-        <v>0.1307720315672825</v>
+        <v>0.09102073769326324</v>
       </c>
       <c r="E14">
-        <v>0.1187187532266005</v>
+        <v>0.04160326012149262</v>
       </c>
       <c r="F14">
-        <v>1.634549516179831</v>
+        <v>0.8786847406972385</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.144651376960713</v>
+        <v>0.0382438487321215</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.371770450349274</v>
+        <v>0.4965704276094698</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.189656568711683</v>
+        <v>2.176948565798767</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.410383214114688</v>
+        <v>5.478831798063311</v>
       </c>
       <c r="C15">
-        <v>0.2712756949896686</v>
+        <v>0.6890823007730091</v>
       </c>
       <c r="D15">
-        <v>0.1306156000754797</v>
+        <v>0.09030784441528539</v>
       </c>
       <c r="E15">
-        <v>0.1187961626868592</v>
+        <v>0.04160680501361469</v>
       </c>
       <c r="F15">
-        <v>1.63531189448338</v>
+        <v>0.8744016317843659</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.144840358923056</v>
+        <v>0.03853995425351808</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3704273583797004</v>
+        <v>0.4914553682866796</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.192455612306446</v>
+        <v>2.167183328668045</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.307527568170542</v>
+        <v>5.12890904470396</v>
       </c>
       <c r="C16">
-        <v>0.2591353148926601</v>
+        <v>0.6517096674138543</v>
       </c>
       <c r="D16">
-        <v>0.129727723530479</v>
+        <v>0.08624310915866573</v>
       </c>
       <c r="E16">
-        <v>0.1192525213793463</v>
+        <v>0.04164968155411053</v>
       </c>
       <c r="F16">
-        <v>1.639998253843217</v>
+        <v>0.8507896947707536</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1459420535258689</v>
+        <v>0.04027262342897764</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3627561827599806</v>
+        <v>0.4622573957124274</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.209385481660775</v>
+        <v>2.113973476048329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.244467362744558</v>
+        <v>4.915009370308894</v>
       </c>
       <c r="C17">
-        <v>0.2516753413941899</v>
+        <v>0.6288401621835078</v>
       </c>
       <c r="D17">
-        <v>0.12919071867627</v>
+        <v>0.08376707652351456</v>
       </c>
       <c r="E17">
-        <v>0.1195438755751876</v>
+        <v>0.04169568444745231</v>
       </c>
       <c r="F17">
-        <v>1.643156291771746</v>
+        <v>0.8371057399734667</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1466346108370136</v>
+        <v>0.04136686198925865</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3580731033043207</v>
+        <v>0.4444414626238284</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.220564490935033</v>
+        <v>2.083691604858728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.208211584618539</v>
+        <v>4.792237717586374</v>
       </c>
       <c r="C18">
-        <v>0.2473801501742514</v>
+        <v>0.6157051435627636</v>
       </c>
       <c r="D18">
-        <v>0.1288846824027559</v>
+        <v>0.08234906968471734</v>
       </c>
       <c r="E18">
-        <v>0.1197156457013637</v>
+        <v>0.04172921652190276</v>
       </c>
       <c r="F18">
-        <v>1.645076680384946</v>
+        <v>0.8295175408455151</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1470390912272075</v>
+        <v>0.04200749214772337</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3553880081718575</v>
+        <v>0.4342272233918152</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.22728550027503</v>
+        <v>2.067105699229046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.195938604262096</v>
+        <v>4.750711419879337</v>
       </c>
       <c r="C19">
-        <v>0.2459251228606263</v>
+        <v>0.611260901058472</v>
       </c>
       <c r="D19">
-        <v>0.1287815518645488</v>
+        <v>0.08186998342022633</v>
       </c>
       <c r="E19">
-        <v>0.1197745242891379</v>
+        <v>0.04174176916945527</v>
       </c>
       <c r="F19">
-        <v>1.645744740810741</v>
+        <v>0.8269957138218302</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1471770959702177</v>
+        <v>0.04222630815326056</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.354480344541642</v>
+        <v>0.4307743167802158</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.229611091920759</v>
+        <v>2.061629470886857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.251178714349919</v>
+        <v>4.937752148945663</v>
       </c>
       <c r="C20">
-        <v>0.2524699268965946</v>
+        <v>0.6312726544404654</v>
       </c>
       <c r="D20">
-        <v>0.1292475906676742</v>
+        <v>0.0840300119941233</v>
       </c>
       <c r="E20">
-        <v>0.1195124267725216</v>
+        <v>0.04169005169757334</v>
       </c>
       <c r="F20">
-        <v>1.642809351227442</v>
+        <v>0.838532923335606</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1465602515186504</v>
+        <v>0.04124920824737632</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3585707479238494</v>
+        <v>0.4463345317111163</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.219344327380355</v>
+        <v>2.086828316030704</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.436949847284154</v>
+        <v>5.569432163673525</v>
       </c>
       <c r="C21">
-        <v>0.2744062461765964</v>
+        <v>0.6987507621119846</v>
       </c>
       <c r="D21">
-        <v>0.1308471958462505</v>
+        <v>0.09136296482461859</v>
       </c>
       <c r="E21">
-        <v>0.1186818587945915</v>
+        <v>0.04160196559930718</v>
       </c>
       <c r="F21">
-        <v>1.63418955357146</v>
+        <v>0.8807555593006526</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1445610859896957</v>
+        <v>0.03810250089054446</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3724149491910254</v>
+        <v>0.4990253469423607</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.188330100251221</v>
+        <v>2.181681278875686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.558479460532965</v>
+        <v>5.985091676011223</v>
       </c>
       <c r="C22">
-        <v>0.288701758751472</v>
+        <v>0.7430678023962969</v>
       </c>
       <c r="D22">
-        <v>0.1319176011406142</v>
+        <v>0.0962169121640386</v>
       </c>
       <c r="E22">
-        <v>0.1181762684099077</v>
+        <v>0.04161101918240817</v>
       </c>
       <c r="F22">
-        <v>1.62948338767022</v>
+        <v>0.9111279252202849</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1433091618543196</v>
+        <v>0.03615162211379364</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3815372825010428</v>
+        <v>0.5338060587641138</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.170659783744668</v>
+        <v>2.251866921634473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.493606756558336</v>
+        <v>5.762961585739276</v>
       </c>
       <c r="C23">
-        <v>0.2810758279857737</v>
+        <v>0.7193927424971207</v>
       </c>
       <c r="D23">
-        <v>0.1313440339592233</v>
+        <v>0.09362030384868802</v>
       </c>
       <c r="E23">
-        <v>0.1184427087523918</v>
+        <v>0.041599906733504</v>
       </c>
       <c r="F23">
-        <v>1.631910228084507</v>
+        <v>0.8946501519575918</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1439723385100038</v>
+        <v>0.03718289591961277</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3766617784258273</v>
+        <v>0.5152088839052453</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.179852605757759</v>
+        <v>2.213617601134104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.248144517197716</v>
+        <v>4.927469514806148</v>
       </c>
       <c r="C24">
-        <v>0.2521107145618089</v>
+        <v>0.6301728848217749</v>
       </c>
       <c r="D24">
-        <v>0.1292218704438142</v>
+        <v>0.08391112181742955</v>
       </c>
       <c r="E24">
-        <v>0.1195266314849182</v>
+        <v>0.04169257623680522</v>
       </c>
       <c r="F24">
-        <v>1.64296587664353</v>
+        <v>0.8378868278863507</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1465938496794701</v>
+        <v>0.04130236362533601</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3583457401351779</v>
+        <v>0.4454785873259226</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.21989504743874</v>
+        <v>2.085407652256436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983946642053866</v>
+        <v>4.035856269082672</v>
       </c>
       <c r="C25">
-        <v>0.2206995027477774</v>
+        <v>0.5346349685745224</v>
       </c>
       <c r="D25">
-        <v>0.1270413041532308</v>
+        <v>0.07366970250961202</v>
       </c>
       <c r="E25">
-        <v>0.1208560968123766</v>
+        <v>0.04206111004222279</v>
       </c>
       <c r="F25">
-        <v>1.658865163015754</v>
+        <v>0.7873287017686295</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1496563324304194</v>
+        <v>0.04617342188958595</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.338914124362887</v>
+        <v>0.3715008349144</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.274214066712574</v>
+        <v>1.978514172597727</v>
       </c>
     </row>
   </sheetData>
